--- a/generated_docs/WR_89719272_WeekEnding_070625.xlsx
+++ b/generated_docs/WR_89719272_WeekEnding_070625.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I111"/>
+  <dimension ref="A2:I112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:47 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>10778.83</v>
+        <v>10974.66</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/03/2025 to 07/06/25</t>
+          <t>06/30/2025 to 07/06/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -3537,17 +3537,17 @@
       </c>
       <c r="B108" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>SVC-10-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C108" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>SVC,1/0,Trip,All Alum,Res</t>
         </is>
       </c>
       <c r="E108" s="12" t="inlineStr">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="G108" s="13" t="inlineStr"/>
       <c r="H108" s="14" t="n">
-        <v>55.18</v>
+        <v>195.83</v>
       </c>
     </row>
     <row r="109">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="B109" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C109" s="9" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="D109" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E109" s="9" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="G109" s="10" t="inlineStr"/>
       <c r="H109" s="11" t="n">
-        <v>286.25</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="110">
@@ -3605,7 +3605,7 @@
       </c>
       <c r="B110" s="12" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C110" s="12" t="inlineStr">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="D110" s="12" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E110" s="12" t="inlineStr">
@@ -3628,22 +3628,55 @@
       </c>
       <c r="G110" s="13" t="inlineStr"/>
       <c r="H110" s="14" t="n">
+        <v>286.25</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="9" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B111" s="9" t="inlineStr">
+        <is>
+          <t>XCO-27-100-8-C</t>
+        </is>
+      </c>
+      <c r="C111" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D111" s="9" t="inlineStr">
+        <is>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+        </is>
+      </c>
+      <c r="E111" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F111" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" s="10" t="inlineStr"/>
+      <c r="H111" s="11" t="n">
         <v>62.42</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="15" t="inlineStr">
+    <row r="112">
+      <c r="A112" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H111" s="16" t="n">
-        <v>1685.43</v>
+      <c r="H112" s="16" t="n">
+        <v>1881.26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A111:G111"/>
     <mergeCell ref="A101:H101"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="G10:I10"/>
@@ -3656,6 +3689,7 @@
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A112:G112"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="A98:G98"/>
     <mergeCell ref="B7:D7"/>

--- a/generated_docs/WR_89719272_WeekEnding_070625.xlsx
+++ b/generated_docs/WR_89719272_WeekEnding_070625.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I112"/>
+  <dimension ref="A2:I142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:47 AM</t>
+          <t>Report Generated On: 08/18/2025 09:47 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>10974.66</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="H18" s="16" t="n">
-        <v>957.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -892,7 +892,7 @@
       </c>
       <c r="G23" s="10" t="inlineStr"/>
       <c r="H23" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="H24" s="16" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -985,7 +985,7 @@
       </c>
       <c r="G29" s="10" t="inlineStr"/>
       <c r="H29" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="G30" s="13" t="inlineStr"/>
       <c r="H30" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="G31" s="10" t="inlineStr"/>
       <c r="H31" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="G32" s="13" t="inlineStr"/>
       <c r="H32" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="G33" s="10" t="inlineStr"/>
       <c r="H33" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="G34" s="13" t="inlineStr"/>
       <c r="H34" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="G36" s="13" t="inlineStr"/>
       <c r="H36" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="G37" s="10" t="inlineStr"/>
       <c r="H37" s="11" t="n">
-        <v>66.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="G38" s="13" t="inlineStr"/>
       <c r="H38" s="14" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="B39" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C39" s="9" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="D39" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E39" s="9" t="inlineStr">
@@ -1321,11 +1321,11 @@
         </is>
       </c>
       <c r="F39" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="10" t="inlineStr"/>
       <c r="H39" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B40" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C40" s="12" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D40" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E40" s="12" t="inlineStr">
@@ -1355,11 +1355,11 @@
         </is>
       </c>
       <c r="F40" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="13" t="inlineStr"/>
       <c r="H40" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B41" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C41" s="9" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="D41" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E41" s="9" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B42" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C42" s="12" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="D42" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E42" s="12" t="inlineStr">
@@ -1427,18 +1427,18 @@
       </c>
       <c r="G42" s="13" t="inlineStr"/>
       <c r="H42" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B43" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C43" s="9" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="D43" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E43" s="9" t="inlineStr">
@@ -1461,18 +1461,18 @@
       </c>
       <c r="G43" s="10" t="inlineStr"/>
       <c r="H43" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B44" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C44" s="12" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="D44" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E44" s="12" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="G44" s="13" t="inlineStr"/>
       <c r="H44" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B45" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C45" s="9" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="D45" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E45" s="9" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="G45" s="10" t="inlineStr"/>
       <c r="H45" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="B46" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C46" s="12" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="D46" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E46" s="12" t="inlineStr">
@@ -1563,18 +1563,18 @@
       </c>
       <c r="G46" s="13" t="inlineStr"/>
       <c r="H46" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B47" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C47" s="9" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="D47" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E47" s="9" t="inlineStr">
@@ -1597,18 +1597,18 @@
       </c>
       <c r="G47" s="10" t="inlineStr"/>
       <c r="H47" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B48" s="12" t="inlineStr">
         <is>
-          <t>POL-40-H1</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C48" s="12" t="inlineStr">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="D48" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class H1</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E48" s="12" t="inlineStr">
@@ -1631,18 +1631,18 @@
       </c>
       <c r="G48" s="13" t="inlineStr"/>
       <c r="H48" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B49" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GYA-HDIG</t>
         </is>
       </c>
       <c r="C49" s="9" t="inlineStr">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="D49" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GYA, Hand Dig or Additional Excavation</t>
         </is>
       </c>
       <c r="E49" s="9" t="inlineStr">
@@ -1665,13 +1665,13 @@
       </c>
       <c r="G49" s="10" t="inlineStr"/>
       <c r="H49" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B50" s="12" t="inlineStr">
@@ -1699,18 +1699,18 @@
       </c>
       <c r="G50" s="13" t="inlineStr"/>
       <c r="H50" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B51" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>POL-40-H1</t>
         </is>
       </c>
       <c r="C51" s="9" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="D51" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pole,40ft,Class H1</t>
         </is>
       </c>
       <c r="E51" s="9" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="G51" s="10" t="inlineStr"/>
       <c r="H51" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="B52" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C52" s="12" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="D52" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E52" s="12" t="inlineStr">
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="F52" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" s="13" t="inlineStr"/>
       <c r="H52" s="14" t="n">
-        <v>110.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B53" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C53" s="9" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="D53" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E53" s="9" t="inlineStr">
@@ -1801,18 +1801,18 @@
       </c>
       <c r="G53" s="10" t="inlineStr"/>
       <c r="H53" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B54" s="12" t="inlineStr">
         <is>
-          <t>ARR-10-LS</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C54" s="12" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="D54" s="12" t="inlineStr">
         <is>
-          <t>ARR,10kV,Line,Arrester Stations</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E54" s="12" t="inlineStr">
@@ -1831,22 +1831,22 @@
         </is>
       </c>
       <c r="F54" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" s="13" t="inlineStr"/>
       <c r="H54" s="14" t="n">
-        <v>66.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B55" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C55" s="9" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="D55" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E55" s="9" t="inlineStr">
@@ -1869,18 +1869,18 @@
       </c>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B56" s="12" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C56" s="12" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E56" s="12" t="inlineStr">
@@ -1899,22 +1899,22 @@
         </is>
       </c>
       <c r="F56" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" s="13" t="inlineStr"/>
       <c r="H56" s="14" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="9" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B57" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GYA-HDIG</t>
         </is>
       </c>
       <c r="C57" s="9" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="D57" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GYA, Hand Dig or Additional Excavation</t>
         </is>
       </c>
       <c r="E57" s="9" t="inlineStr">
@@ -1937,18 +1937,18 @@
       </c>
       <c r="G57" s="10" t="inlineStr"/>
       <c r="H57" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="12" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B58" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C58" s="12" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E58" s="12" t="inlineStr">
@@ -1971,18 +1971,18 @@
       </c>
       <c r="G58" s="13" t="inlineStr"/>
       <c r="H58" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="9" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B59" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>ARR-10-LS</t>
         </is>
       </c>
       <c r="C59" s="9" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="D59" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>ARR,10kV,Line,Arrester Stations</t>
         </is>
       </c>
       <c r="E59" s="9" t="inlineStr">
@@ -2005,18 +2005,18 @@
       </c>
       <c r="G59" s="10" t="inlineStr"/>
       <c r="H59" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="12" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B60" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C60" s="12" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E60" s="12" t="inlineStr">
@@ -2039,18 +2039,18 @@
       </c>
       <c r="G60" s="13" t="inlineStr"/>
       <c r="H60" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B61" s="9" t="inlineStr">
         <is>
-          <t>POL-40-H1</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C61" s="9" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="D61" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class H1</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E61" s="9" t="inlineStr">
@@ -2073,18 +2073,18 @@
       </c>
       <c r="G61" s="10" t="inlineStr"/>
       <c r="H61" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="12" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B62" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C62" s="12" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="D62" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E62" s="12" t="inlineStr">
@@ -2107,18 +2107,18 @@
       </c>
       <c r="G62" s="13" t="inlineStr"/>
       <c r="H62" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B63" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C63" s="9" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="D63" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E63" s="9" t="inlineStr">
@@ -2137,22 +2137,22 @@
         </is>
       </c>
       <c r="F63" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" s="10" t="inlineStr"/>
       <c r="H63" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="12" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B64" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>GYA-HDIG</t>
         </is>
       </c>
       <c r="C64" s="12" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="D64" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>GYA, Hand Dig or Additional Excavation</t>
         </is>
       </c>
       <c r="E64" s="12" t="inlineStr">
@@ -2175,18 +2175,18 @@
       </c>
       <c r="G64" s="13" t="inlineStr"/>
       <c r="H64" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="9" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B65" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C65" s="9" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="D65" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E65" s="9" t="inlineStr">
@@ -2209,18 +2209,18 @@
       </c>
       <c r="G65" s="10" t="inlineStr"/>
       <c r="H65" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="12" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B66" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C66" s="12" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="D66" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E66" s="12" t="inlineStr">
@@ -2243,18 +2243,18 @@
       </c>
       <c r="G66" s="13" t="inlineStr"/>
       <c r="H66" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="9" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B67" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C67" s="9" t="inlineStr">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="D67" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E67" s="9" t="inlineStr">
@@ -2277,13 +2277,13 @@
       </c>
       <c r="G67" s="10" t="inlineStr"/>
       <c r="H67" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="12" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B68" s="12" t="inlineStr">
@@ -2311,18 +2311,18 @@
       </c>
       <c r="G68" s="13" t="inlineStr"/>
       <c r="H68" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B69" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GYA-HDIG</t>
         </is>
       </c>
       <c r="C69" s="9" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="D69" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GYA, Hand Dig or Additional Excavation</t>
         </is>
       </c>
       <c r="E69" s="9" t="inlineStr">
@@ -2345,18 +2345,18 @@
       </c>
       <c r="G69" s="10" t="inlineStr"/>
       <c r="H69" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="12" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B70" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-H1</t>
         </is>
       </c>
       <c r="C70" s="12" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class H1</t>
         </is>
       </c>
       <c r="E70" s="12" t="inlineStr">
@@ -2379,18 +2379,18 @@
       </c>
       <c r="G70" s="13" t="inlineStr"/>
       <c r="H70" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B71" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C71" s="9" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="D71" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E71" s="9" t="inlineStr">
@@ -2413,28 +2413,28 @@
       </c>
       <c r="G71" s="10" t="inlineStr"/>
       <c r="H71" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="12" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B72" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C72" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E72" s="12" t="inlineStr">
@@ -2447,28 +2447,28 @@
       </c>
       <c r="G72" s="13" t="inlineStr"/>
       <c r="H72" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="9" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B73" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C73" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D73" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E73" s="9" t="inlineStr">
@@ -2481,28 +2481,28 @@
       </c>
       <c r="G73" s="10" t="inlineStr"/>
       <c r="H73" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="12" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B74" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>GYA-HDIG</t>
         </is>
       </c>
       <c r="C74" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D74" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>GYA, Hand Dig or Additional Excavation</t>
         </is>
       </c>
       <c r="E74" s="12" t="inlineStr">
@@ -2515,28 +2515,28 @@
       </c>
       <c r="G74" s="13" t="inlineStr"/>
       <c r="H74" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="9" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B75" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C75" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D75" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E75" s="9" t="inlineStr">
@@ -2549,18 +2549,18 @@
       </c>
       <c r="G75" s="10" t="inlineStr"/>
       <c r="H75" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="12" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B76" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C76" s="12" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="D76" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E76" s="12" t="inlineStr">
@@ -2583,18 +2583,18 @@
       </c>
       <c r="G76" s="13" t="inlineStr"/>
       <c r="H76" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="9" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B77" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C77" s="9" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="D77" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E77" s="9" t="inlineStr">
@@ -2617,18 +2617,18 @@
       </c>
       <c r="G77" s="10" t="inlineStr"/>
       <c r="H77" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="12" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B78" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C78" s="12" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="D78" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E78" s="12" t="inlineStr">
@@ -2647,32 +2647,32 @@
         </is>
       </c>
       <c r="F78" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" s="13" t="inlineStr"/>
       <c r="H78" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="9" t="inlineStr">
         <is>
-          <t>Point 34</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B79" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C79" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D79" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E79" s="9" t="inlineStr">
@@ -2685,28 +2685,28 @@
       </c>
       <c r="G79" s="10" t="inlineStr"/>
       <c r="H79" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="12" t="inlineStr">
         <is>
-          <t>Point 34</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B80" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C80" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D80" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E80" s="12" t="inlineStr">
@@ -2719,28 +2719,28 @@
       </c>
       <c r="G80" s="13" t="inlineStr"/>
       <c r="H80" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="9" t="inlineStr">
         <is>
-          <t>Point 34</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B81" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>GYA-HDIG</t>
         </is>
       </c>
       <c r="C81" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D81" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>GYA, Hand Dig or Additional Excavation</t>
         </is>
       </c>
       <c r="E81" s="9" t="inlineStr">
@@ -2753,18 +2753,18 @@
       </c>
       <c r="G81" s="10" t="inlineStr"/>
       <c r="H81" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B82" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-20-S-X-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C82" s="12" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="D82" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E82" s="12" t="inlineStr">
@@ -2787,18 +2787,18 @@
       </c>
       <c r="G82" s="13" t="inlineStr"/>
       <c r="H82" s="14" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B83" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C83" s="9" t="inlineStr">
@@ -2808,7 +2808,7 @@
       </c>
       <c r="D83" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E83" s="9" t="inlineStr">
@@ -2821,18 +2821,18 @@
       </c>
       <c r="G83" s="10" t="inlineStr"/>
       <c r="H83" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B84" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C84" s="12" t="inlineStr">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="D84" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E84" s="12" t="inlineStr">
@@ -2855,28 +2855,28 @@
       </c>
       <c r="G84" s="13" t="inlineStr"/>
       <c r="H84" s="14" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B85" s="9" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C85" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D85" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E85" s="9" t="inlineStr">
@@ -2889,28 +2889,28 @@
       </c>
       <c r="G85" s="10" t="inlineStr"/>
       <c r="H85" s="11" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B86" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C86" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D86" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E86" s="12" t="inlineStr">
@@ -2923,28 +2923,28 @@
       </c>
       <c r="G86" s="13" t="inlineStr"/>
       <c r="H86" s="14" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B87" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C87" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D87" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E87" s="9" t="inlineStr">
@@ -2957,13 +2957,13 @@
       </c>
       <c r="G87" s="10" t="inlineStr"/>
       <c r="H87" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B88" s="12" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="C88" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D88" s="12" t="inlineStr">
@@ -2991,28 +2991,28 @@
       </c>
       <c r="G88" s="13" t="inlineStr"/>
       <c r="H88" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B89" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG10</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C89" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D89" s="9" t="inlineStr">
         <is>
-          <t>SVD, Service Grip, 1/0</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E89" s="9" t="inlineStr">
@@ -3025,18 +3025,18 @@
       </c>
       <c r="G89" s="10" t="inlineStr"/>
       <c r="H89" s="11" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B90" s="12" t="inlineStr">
         <is>
-          <t>XFR-50-24-120-1B</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C90" s="12" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="D90" s="12" t="inlineStr">
         <is>
-          <t>XFR,50KVA,4.16gndY/2.4kV,120/240,1BG</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E90" s="12" t="inlineStr">
@@ -3059,28 +3059,28 @@
       </c>
       <c r="G90" s="13" t="inlineStr"/>
       <c r="H90" s="14" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B91" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C91" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D91" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E91" s="9" t="inlineStr">
@@ -3093,18 +3093,18 @@
       </c>
       <c r="G91" s="10" t="inlineStr"/>
       <c r="H91" s="11" t="n">
-        <v>17.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 34</t>
         </is>
       </c>
       <c r="B92" s="12" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C92" s="12" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="D92" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E92" s="12" t="inlineStr">
@@ -3127,18 +3127,18 @@
       </c>
       <c r="G92" s="13" t="inlineStr"/>
       <c r="H92" s="14" t="n">
-        <v>6.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 34</t>
         </is>
       </c>
       <c r="B93" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C93" s="9" t="inlineStr">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="D93" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E93" s="9" t="inlineStr">
@@ -3161,18 +3161,18 @@
       </c>
       <c r="G93" s="10" t="inlineStr"/>
       <c r="H93" s="11" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 34</t>
         </is>
       </c>
       <c r="B94" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C94" s="12" t="inlineStr">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="D94" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E94" s="12" t="inlineStr">
@@ -3195,28 +3195,28 @@
       </c>
       <c r="G94" s="13" t="inlineStr"/>
       <c r="H94" s="14" t="n">
-        <v>60.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B95" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>EQL-1-4-C-20-S-X-C</t>
         </is>
       </c>
       <c r="C95" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D95" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E95" s="9" t="inlineStr">
@@ -3229,28 +3229,28 @@
       </c>
       <c r="G95" s="10" t="inlineStr"/>
       <c r="H95" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B96" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C96" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D96" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E96" s="12" t="inlineStr">
@@ -3263,28 +3263,28 @@
       </c>
       <c r="G96" s="13" t="inlineStr"/>
       <c r="H96" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B97" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C97" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D97" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E97" s="9" t="inlineStr">
@@ -3297,77 +3297,188 @@
       </c>
       <c r="G97" s="10" t="inlineStr"/>
       <c r="H97" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H98" s="16" t="n">
-        <v>8104.580000000004</v>
+      <c r="A98" s="12" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B98" s="12" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C98" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D98" s="12" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E98" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F98" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" s="13" t="inlineStr"/>
+      <c r="H98" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B99" s="9" t="inlineStr">
+        <is>
+          <t>CND-S2</t>
+        </is>
+      </c>
+      <c r="C99" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D99" s="9" t="inlineStr">
+        <is>
+          <t>CND,Stirrup #2</t>
+        </is>
+      </c>
+      <c r="E99" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F99" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" s="10" t="inlineStr"/>
+      <c r="H99" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="12" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B100" s="12" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-2-S-X-C</t>
+        </is>
+      </c>
+      <c r="C100" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D100" s="12" t="inlineStr">
+        <is>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+        </is>
+      </c>
+      <c r="E100" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F100" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" s="13" t="inlineStr"/>
+      <c r="H100" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="7" t="inlineStr">
-        <is>
-          <t>Thursday (07/03/2025)</t>
-        </is>
+      <c r="A101" s="9" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B101" s="9" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C101" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D101" s="9" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E101" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F101" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" s="10" t="inlineStr"/>
+      <c r="H101" s="11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B102" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C102" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D102" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E102" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F102" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G102" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H102" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="A102" s="12" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B102" s="12" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C102" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D102" s="12" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E102" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F102" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G102" s="13" t="inlineStr"/>
+      <c r="H102" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B103" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C103" s="9" t="inlineStr">
@@ -3377,7 +3488,7 @@
       </c>
       <c r="D103" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E103" s="9" t="inlineStr">
@@ -3390,7 +3501,7 @@
       </c>
       <c r="G103" s="10" t="inlineStr"/>
       <c r="H103" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -3401,7 +3512,7 @@
       </c>
       <c r="B104" s="12" t="inlineStr">
         <is>
-          <t>ANC-DHM-8-84-T1-C</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C104" s="12" t="inlineStr">
@@ -3411,7 +3522,7 @@
       </c>
       <c r="D104" s="12" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E104" s="12" t="inlineStr">
@@ -3424,7 +3535,7 @@
       </c>
       <c r="G104" s="13" t="inlineStr"/>
       <c r="H104" s="14" t="n">
-        <v>217.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -3435,17 +3546,17 @@
       </c>
       <c r="B105" s="9" t="inlineStr">
         <is>
-          <t>CND-S40795A</t>
+          <t>SVD-SG10</t>
         </is>
       </c>
       <c r="C105" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D105" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup 4/0-795 ACSR</t>
+          <t>SVD, Service Grip, 1/0</t>
         </is>
       </c>
       <c r="E105" s="9" t="inlineStr">
@@ -3458,7 +3569,7 @@
       </c>
       <c r="G105" s="10" t="inlineStr"/>
       <c r="H105" s="11" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -3469,7 +3580,7 @@
       </c>
       <c r="B106" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>XFR-50-24-120-1B</t>
         </is>
       </c>
       <c r="C106" s="12" t="inlineStr">
@@ -3479,7 +3590,7 @@
       </c>
       <c r="D106" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>XFR,50KVA,4.16gndY/2.4kV,120/240,1BG</t>
         </is>
       </c>
       <c r="E106" s="12" t="inlineStr">
@@ -3492,28 +3603,28 @@
       </c>
       <c r="G106" s="13" t="inlineStr"/>
       <c r="H106" s="14" t="n">
-        <v>79.34999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B107" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C107" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D107" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E107" s="9" t="inlineStr">
@@ -3526,28 +3637,28 @@
       </c>
       <c r="G107" s="10" t="inlineStr"/>
       <c r="H107" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B108" s="12" t="inlineStr">
         <is>
-          <t>SVC-10-TP-AAA-RS</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C108" s="12" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>SVC,1/0,Trip,All Alum,Res</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E108" s="12" t="inlineStr">
@@ -3560,28 +3671,28 @@
       </c>
       <c r="G108" s="13" t="inlineStr"/>
       <c r="H108" s="14" t="n">
-        <v>195.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B109" s="9" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C109" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D109" s="9" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E109" s="9" t="inlineStr">
@@ -3594,28 +3705,28 @@
       </c>
       <c r="G109" s="10" t="inlineStr"/>
       <c r="H109" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B110" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C110" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D110" s="12" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E110" s="12" t="inlineStr">
@@ -3628,28 +3739,28 @@
       </c>
       <c r="G110" s="13" t="inlineStr"/>
       <c r="H110" s="14" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B111" s="9" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C111" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D111" s="9" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E111" s="9" t="inlineStr">
@@ -3662,22 +3773,930 @@
       </c>
       <c r="G111" s="10" t="inlineStr"/>
       <c r="H111" s="11" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="15" t="inlineStr">
+      <c r="A112" s="12" t="inlineStr">
+        <is>
+          <t>Point 36</t>
+        </is>
+      </c>
+      <c r="B112" s="12" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C112" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D112" s="12" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E112" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F112" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" s="13" t="inlineStr"/>
+      <c r="H112" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="9" t="inlineStr">
+        <is>
+          <t>Point 36</t>
+        </is>
+      </c>
+      <c r="B113" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C113" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D113" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E113" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F113" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" s="10" t="inlineStr"/>
+      <c r="H113" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="12" t="inlineStr">
+        <is>
+          <t>Point 36</t>
+        </is>
+      </c>
+      <c r="B114" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C114" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D114" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E114" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F114" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G114" s="13" t="inlineStr"/>
+      <c r="H114" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="9" t="inlineStr">
+        <is>
+          <t>Point 36</t>
+        </is>
+      </c>
+      <c r="B115" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C115" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D115" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E115" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F115" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" s="10" t="inlineStr"/>
+      <c r="H115" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="12" t="inlineStr">
+        <is>
+          <t>Point 36</t>
+        </is>
+      </c>
+      <c r="B116" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C116" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D116" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E116" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F116" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" s="13" t="inlineStr"/>
+      <c r="H116" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H112" s="16" t="n">
-        <v>1881.26</v>
+      <c r="H117" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="7" t="inlineStr">
+        <is>
+          <t>Thursday (07/03/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B121" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C121" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D121" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E121" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F121" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G121" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H121" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B122" s="9" t="inlineStr">
+        <is>
+          <t>GYA-HDIG</t>
+        </is>
+      </c>
+      <c r="C122" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D122" s="9" t="inlineStr">
+        <is>
+          <t>GYA, Hand Dig or Additional Excavation</t>
+        </is>
+      </c>
+      <c r="E122" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F122" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" s="10" t="inlineStr"/>
+      <c r="H122" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="12" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B123" s="12" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C123" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D123" s="12" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E123" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F123" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" s="13" t="inlineStr"/>
+      <c r="H123" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B124" s="9" t="inlineStr">
+        <is>
+          <t>GYA-HDIG</t>
+        </is>
+      </c>
+      <c r="C124" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D124" s="9" t="inlineStr">
+        <is>
+          <t>GYA, Hand Dig or Additional Excavation</t>
+        </is>
+      </c>
+      <c r="E124" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F124" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" s="10" t="inlineStr"/>
+      <c r="H124" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B125" s="12" t="inlineStr">
+        <is>
+          <t>GYA-HDIG</t>
+        </is>
+      </c>
+      <c r="C125" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D125" s="12" t="inlineStr">
+        <is>
+          <t>GYA, Hand Dig or Additional Excavation</t>
+        </is>
+      </c>
+      <c r="E125" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F125" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" s="13" t="inlineStr"/>
+      <c r="H125" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B126" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C126" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D126" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E126" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F126" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" s="10" t="inlineStr"/>
+      <c r="H126" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B127" s="12" t="inlineStr">
+        <is>
+          <t>GYA-HDIG</t>
+        </is>
+      </c>
+      <c r="C127" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D127" s="12" t="inlineStr">
+        <is>
+          <t>GYA, Hand Dig or Additional Excavation</t>
+        </is>
+      </c>
+      <c r="E127" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F127" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" s="13" t="inlineStr"/>
+      <c r="H127" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B128" s="9" t="inlineStr">
+        <is>
+          <t>GYA-HDIG</t>
+        </is>
+      </c>
+      <c r="C128" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D128" s="9" t="inlineStr">
+        <is>
+          <t>GYA, Hand Dig or Additional Excavation</t>
+        </is>
+      </c>
+      <c r="E128" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F128" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" s="10" t="inlineStr"/>
+      <c r="H128" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B129" s="12" t="inlineStr">
+        <is>
+          <t>GYA-HDIG</t>
+        </is>
+      </c>
+      <c r="C129" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D129" s="12" t="inlineStr">
+        <is>
+          <t>GYA, Hand Dig or Additional Excavation</t>
+        </is>
+      </c>
+      <c r="E129" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F129" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" s="13" t="inlineStr"/>
+      <c r="H129" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="9" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B130" s="9" t="inlineStr">
+        <is>
+          <t>ANC-DHM-8-84-T1-C</t>
+        </is>
+      </c>
+      <c r="C130" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D130" s="9" t="inlineStr">
+        <is>
+          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
+        </is>
+      </c>
+      <c r="E130" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F130" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" s="10" t="inlineStr"/>
+      <c r="H130" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="12" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B131" s="12" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C131" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D131" s="12" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E131" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F131" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" s="13" t="inlineStr"/>
+      <c r="H131" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="9" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B132" s="9" t="inlineStr">
+        <is>
+          <t>CND-S40795A</t>
+        </is>
+      </c>
+      <c r="C132" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D132" s="9" t="inlineStr">
+        <is>
+          <t>CND,Stirrup 4/0-795 ACSR</t>
+        </is>
+      </c>
+      <c r="E132" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F132" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" s="10" t="inlineStr"/>
+      <c r="H132" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="12" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B133" s="12" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C133" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D133" s="12" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E133" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F133" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G133" s="13" t="inlineStr"/>
+      <c r="H133" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="9" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B134" s="9" t="inlineStr">
+        <is>
+          <t>GYF-38-78W-I-C</t>
+        </is>
+      </c>
+      <c r="C134" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D134" s="9" t="inlineStr">
+        <is>
+          <t>GYF,3/8,78Wire mt,Insulator Adder,Corros</t>
+        </is>
+      </c>
+      <c r="E134" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F134" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" s="10" t="inlineStr"/>
+      <c r="H134" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="12" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B135" s="12" t="inlineStr">
+        <is>
+          <t>GYF-38-D-42P-EP-C</t>
+        </is>
+      </c>
+      <c r="C135" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D135" s="12" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+        </is>
+      </c>
+      <c r="E135" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F135" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" s="13" t="inlineStr"/>
+      <c r="H135" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="9" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B136" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C136" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D136" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E136" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F136" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" s="10" t="inlineStr"/>
+      <c r="H136" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="12" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B137" s="12" t="inlineStr">
+        <is>
+          <t>SVC-10-TP-AAA-RS</t>
+        </is>
+      </c>
+      <c r="C137" s="12" t="inlineStr">
+        <is>
+          <t>Trans</t>
+        </is>
+      </c>
+      <c r="D137" s="12" t="inlineStr">
+        <is>
+          <t>SVC,1/0,Trip,All Alum,Res</t>
+        </is>
+      </c>
+      <c r="E137" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F137" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" s="13" t="inlineStr"/>
+      <c r="H137" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="9" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B138" s="9" t="inlineStr">
+        <is>
+          <t>SVD-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C138" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D138" s="9" t="inlineStr">
+        <is>
+          <t>SVD,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E138" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F138" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" s="10" t="inlineStr"/>
+      <c r="H138" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="12" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B139" s="12" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C139" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D139" s="12" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E139" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F139" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" s="13" t="inlineStr"/>
+      <c r="H139" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="9" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B140" s="9" t="inlineStr">
+        <is>
+          <t>XCO-27-100-8-C</t>
+        </is>
+      </c>
+      <c r="C140" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D140" s="9" t="inlineStr">
+        <is>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+        </is>
+      </c>
+      <c r="E140" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F140" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G140" s="10" t="inlineStr"/>
+      <c r="H140" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="12" t="inlineStr">
+        <is>
+          <t>Point 35</t>
+        </is>
+      </c>
+      <c r="B141" s="12" t="inlineStr">
+        <is>
+          <t>GYA-HDIG</t>
+        </is>
+      </c>
+      <c r="C141" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D141" s="12" t="inlineStr">
+        <is>
+          <t>GYA, Hand Dig or Additional Excavation</t>
+        </is>
+      </c>
+      <c r="E141" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F141" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G141" s="13" t="inlineStr"/>
+      <c r="H141" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H142" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A101:H101"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="A18:G18"/>
@@ -3685,15 +4704,16 @@
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A142:G142"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A112:G112"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A98:G98"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A120:H120"/>
+    <mergeCell ref="A117:G117"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89719272_WeekEnding_070625.xlsx
+++ b/generated_docs/WR_89719272_WeekEnding_070625.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I142"/>
+  <dimension ref="A2:I112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:47 PM</t>
+          <t>Report Generated On: 08/26/2025 09:59 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>10974.66</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P17</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="18">
@@ -809,7 +805,7 @@
         </is>
       </c>
       <c r="H18" s="16" t="n">
-        <v>0</v>
+        <v>957.1</v>
       </c>
     </row>
     <row r="21">
@@ -892,7 +888,7 @@
       </c>
       <c r="G23" s="10" t="inlineStr"/>
       <c r="H23" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="24">
@@ -902,7 +898,7 @@
         </is>
       </c>
       <c r="H24" s="16" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="27">
@@ -985,7 +981,7 @@
       </c>
       <c r="G29" s="10" t="inlineStr"/>
       <c r="H29" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="30">
@@ -1019,7 +1015,7 @@
       </c>
       <c r="G30" s="13" t="inlineStr"/>
       <c r="H30" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="31">
@@ -1053,7 +1049,7 @@
       </c>
       <c r="G31" s="10" t="inlineStr"/>
       <c r="H31" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="32">
@@ -1087,7 +1083,7 @@
       </c>
       <c r="G32" s="13" t="inlineStr"/>
       <c r="H32" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="33">
@@ -1121,7 +1117,7 @@
       </c>
       <c r="G33" s="10" t="inlineStr"/>
       <c r="H33" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="34">
@@ -1155,7 +1151,7 @@
       </c>
       <c r="G34" s="13" t="inlineStr"/>
       <c r="H34" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="35">
@@ -1189,7 +1185,7 @@
       </c>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="36">
@@ -1223,7 +1219,7 @@
       </c>
       <c r="G36" s="13" t="inlineStr"/>
       <c r="H36" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="37">
@@ -1257,7 +1253,7 @@
       </c>
       <c r="G37" s="10" t="inlineStr"/>
       <c r="H37" s="11" t="n">
-        <v>0</v>
+        <v>66.72</v>
       </c>
     </row>
     <row r="38">
@@ -1291,7 +1287,7 @@
       </c>
       <c r="G38" s="13" t="inlineStr"/>
       <c r="H38" s="14" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="39">
@@ -1302,7 +1298,7 @@
       </c>
       <c r="B39" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C39" s="9" t="inlineStr">
@@ -1312,7 +1308,7 @@
       </c>
       <c r="D39" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E39" s="9" t="inlineStr">
@@ -1321,11 +1317,11 @@
         </is>
       </c>
       <c r="F39" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="10" t="inlineStr"/>
       <c r="H39" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="40">
@@ -1336,7 +1332,7 @@
       </c>
       <c r="B40" s="12" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C40" s="12" t="inlineStr">
@@ -1346,7 +1342,7 @@
       </c>
       <c r="D40" s="12" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E40" s="12" t="inlineStr">
@@ -1355,11 +1351,11 @@
         </is>
       </c>
       <c r="F40" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" s="13" t="inlineStr"/>
       <c r="H40" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="41">
@@ -1370,7 +1366,7 @@
       </c>
       <c r="B41" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C41" s="9" t="inlineStr">
@@ -1380,7 +1376,7 @@
       </c>
       <c r="D41" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E41" s="9" t="inlineStr">
@@ -1393,7 +1389,7 @@
       </c>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="42">
@@ -1404,7 +1400,7 @@
       </c>
       <c r="B42" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C42" s="12" t="inlineStr">
@@ -1414,7 +1410,7 @@
       </c>
       <c r="D42" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E42" s="12" t="inlineStr">
@@ -1427,18 +1423,18 @@
       </c>
       <c r="G42" s="13" t="inlineStr"/>
       <c r="H42" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B43" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C43" s="9" t="inlineStr">
@@ -1448,7 +1444,7 @@
       </c>
       <c r="D43" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E43" s="9" t="inlineStr">
@@ -1461,18 +1457,18 @@
       </c>
       <c r="G43" s="10" t="inlineStr"/>
       <c r="H43" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B44" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C44" s="12" t="inlineStr">
@@ -1482,7 +1478,7 @@
       </c>
       <c r="D44" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E44" s="12" t="inlineStr">
@@ -1495,7 +1491,7 @@
       </c>
       <c r="G44" s="13" t="inlineStr"/>
       <c r="H44" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="45">
@@ -1506,7 +1502,7 @@
       </c>
       <c r="B45" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C45" s="9" t="inlineStr">
@@ -1516,7 +1512,7 @@
       </c>
       <c r="D45" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E45" s="9" t="inlineStr">
@@ -1529,7 +1525,7 @@
       </c>
       <c r="G45" s="10" t="inlineStr"/>
       <c r="H45" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="46">
@@ -1540,7 +1536,7 @@
       </c>
       <c r="B46" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C46" s="12" t="inlineStr">
@@ -1550,7 +1546,7 @@
       </c>
       <c r="D46" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E46" s="12" t="inlineStr">
@@ -1563,18 +1559,18 @@
       </c>
       <c r="G46" s="13" t="inlineStr"/>
       <c r="H46" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B47" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C47" s="9" t="inlineStr">
@@ -1584,7 +1580,7 @@
       </c>
       <c r="D47" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E47" s="9" t="inlineStr">
@@ -1597,18 +1593,18 @@
       </c>
       <c r="G47" s="10" t="inlineStr"/>
       <c r="H47" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B48" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-40-H1</t>
         </is>
       </c>
       <c r="C48" s="12" t="inlineStr">
@@ -1618,7 +1614,7 @@
       </c>
       <c r="D48" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class H1</t>
         </is>
       </c>
       <c r="E48" s="12" t="inlineStr">
@@ -1631,18 +1627,18 @@
       </c>
       <c r="G48" s="13" t="inlineStr"/>
       <c r="H48" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B49" s="9" t="inlineStr">
         <is>
-          <t>GYA-HDIG</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C49" s="9" t="inlineStr">
@@ -1652,7 +1648,7 @@
       </c>
       <c r="D49" s="9" t="inlineStr">
         <is>
-          <t>GYA, Hand Dig or Additional Excavation</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E49" s="9" t="inlineStr">
@@ -1665,13 +1661,13 @@
       </c>
       <c r="G49" s="10" t="inlineStr"/>
       <c r="H49" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B50" s="12" t="inlineStr">
@@ -1699,18 +1695,18 @@
       </c>
       <c r="G50" s="13" t="inlineStr"/>
       <c r="H50" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B51" s="9" t="inlineStr">
         <is>
-          <t>POL-40-H1</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C51" s="9" t="inlineStr">
@@ -1720,7 +1716,7 @@
       </c>
       <c r="D51" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class H1</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E51" s="9" t="inlineStr">
@@ -1733,7 +1729,7 @@
       </c>
       <c r="G51" s="10" t="inlineStr"/>
       <c r="H51" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="52">
@@ -1744,7 +1740,7 @@
       </c>
       <c r="B52" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C52" s="12" t="inlineStr">
@@ -1754,7 +1750,7 @@
       </c>
       <c r="D52" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E52" s="12" t="inlineStr">
@@ -1763,22 +1759,22 @@
         </is>
       </c>
       <c r="F52" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="13" t="inlineStr"/>
       <c r="H52" s="14" t="n">
-        <v>0</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B53" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C53" s="9" t="inlineStr">
@@ -1788,7 +1784,7 @@
       </c>
       <c r="D53" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E53" s="9" t="inlineStr">
@@ -1801,18 +1797,18 @@
       </c>
       <c r="G53" s="10" t="inlineStr"/>
       <c r="H53" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B54" s="12" t="inlineStr">
         <is>
-          <t>PLD-EYE-C</t>
+          <t>ARR-10-LS</t>
         </is>
       </c>
       <c r="C54" s="12" t="inlineStr">
@@ -1822,7 +1818,7 @@
       </c>
       <c r="D54" s="12" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
+          <t>ARR,10kV,Line,Arrester Stations</t>
         </is>
       </c>
       <c r="E54" s="12" t="inlineStr">
@@ -1831,22 +1827,22 @@
         </is>
       </c>
       <c r="F54" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" s="13" t="inlineStr"/>
       <c r="H54" s="14" t="n">
-        <v>0</v>
+        <v>66.72</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B55" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C55" s="9" t="inlineStr">
@@ -1856,7 +1852,7 @@
       </c>
       <c r="D55" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E55" s="9" t="inlineStr">
@@ -1869,18 +1865,18 @@
       </c>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B56" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C56" s="12" t="inlineStr">
@@ -1890,7 +1886,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E56" s="12" t="inlineStr">
@@ -1899,22 +1895,22 @@
         </is>
       </c>
       <c r="F56" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" s="13" t="inlineStr"/>
       <c r="H56" s="14" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B57" s="9" t="inlineStr">
         <is>
-          <t>GYA-HDIG</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C57" s="9" t="inlineStr">
@@ -1924,7 +1920,7 @@
       </c>
       <c r="D57" s="9" t="inlineStr">
         <is>
-          <t>GYA, Hand Dig or Additional Excavation</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E57" s="9" t="inlineStr">
@@ -1937,18 +1933,18 @@
       </c>
       <c r="G57" s="10" t="inlineStr"/>
       <c r="H57" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B58" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C58" s="12" t="inlineStr">
@@ -1958,7 +1954,7 @@
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E58" s="12" t="inlineStr">
@@ -1971,18 +1967,18 @@
       </c>
       <c r="G58" s="13" t="inlineStr"/>
       <c r="H58" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B59" s="9" t="inlineStr">
         <is>
-          <t>ARR-10-LS</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C59" s="9" t="inlineStr">
@@ -1992,7 +1988,7 @@
       </c>
       <c r="D59" s="9" t="inlineStr">
         <is>
-          <t>ARR,10kV,Line,Arrester Stations</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E59" s="9" t="inlineStr">
@@ -2005,18 +2001,18 @@
       </c>
       <c r="G59" s="10" t="inlineStr"/>
       <c r="H59" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B60" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C60" s="12" t="inlineStr">
@@ -2026,7 +2022,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E60" s="12" t="inlineStr">
@@ -2039,18 +2035,18 @@
       </c>
       <c r="G60" s="13" t="inlineStr"/>
       <c r="H60" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B61" s="9" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>POL-40-H1</t>
         </is>
       </c>
       <c r="C61" s="9" t="inlineStr">
@@ -2060,7 +2056,7 @@
       </c>
       <c r="D61" s="9" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>Pole,40ft,Class H1</t>
         </is>
       </c>
       <c r="E61" s="9" t="inlineStr">
@@ -2073,18 +2069,18 @@
       </c>
       <c r="G61" s="10" t="inlineStr"/>
       <c r="H61" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B62" s="12" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C62" s="12" t="inlineStr">
@@ -2094,7 +2090,7 @@
       </c>
       <c r="D62" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E62" s="12" t="inlineStr">
@@ -2107,18 +2103,18 @@
       </c>
       <c r="G62" s="13" t="inlineStr"/>
       <c r="H62" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B63" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C63" s="9" t="inlineStr">
@@ -2128,7 +2124,7 @@
       </c>
       <c r="D63" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E63" s="9" t="inlineStr">
@@ -2137,22 +2133,22 @@
         </is>
       </c>
       <c r="F63" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="10" t="inlineStr"/>
       <c r="H63" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B64" s="12" t="inlineStr">
         <is>
-          <t>GYA-HDIG</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C64" s="12" t="inlineStr">
@@ -2162,7 +2158,7 @@
       </c>
       <c r="D64" s="12" t="inlineStr">
         <is>
-          <t>GYA, Hand Dig or Additional Excavation</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E64" s="12" t="inlineStr">
@@ -2175,18 +2171,18 @@
       </c>
       <c r="G64" s="13" t="inlineStr"/>
       <c r="H64" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="9" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B65" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C65" s="9" t="inlineStr">
@@ -2196,7 +2192,7 @@
       </c>
       <c r="D65" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E65" s="9" t="inlineStr">
@@ -2209,18 +2205,18 @@
       </c>
       <c r="G65" s="10" t="inlineStr"/>
       <c r="H65" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="12" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B66" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C66" s="12" t="inlineStr">
@@ -2230,7 +2226,7 @@
       </c>
       <c r="D66" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E66" s="12" t="inlineStr">
@@ -2243,18 +2239,18 @@
       </c>
       <c r="G66" s="13" t="inlineStr"/>
       <c r="H66" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="9" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B67" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C67" s="9" t="inlineStr">
@@ -2264,7 +2260,7 @@
       </c>
       <c r="D67" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E67" s="9" t="inlineStr">
@@ -2277,13 +2273,13 @@
       </c>
       <c r="G67" s="10" t="inlineStr"/>
       <c r="H67" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="12" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B68" s="12" t="inlineStr">
@@ -2311,18 +2307,18 @@
       </c>
       <c r="G68" s="13" t="inlineStr"/>
       <c r="H68" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="9" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B69" s="9" t="inlineStr">
         <is>
-          <t>GYA-HDIG</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C69" s="9" t="inlineStr">
@@ -2332,7 +2328,7 @@
       </c>
       <c r="D69" s="9" t="inlineStr">
         <is>
-          <t>GYA, Hand Dig or Additional Excavation</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E69" s="9" t="inlineStr">
@@ -2345,18 +2341,18 @@
       </c>
       <c r="G69" s="10" t="inlineStr"/>
       <c r="H69" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="12" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B70" s="12" t="inlineStr">
         <is>
-          <t>POL-40-H1</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C70" s="12" t="inlineStr">
@@ -2366,7 +2362,7 @@
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class H1</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E70" s="12" t="inlineStr">
@@ -2379,18 +2375,18 @@
       </c>
       <c r="G70" s="13" t="inlineStr"/>
       <c r="H70" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B71" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C71" s="9" t="inlineStr">
@@ -2400,7 +2396,7 @@
       </c>
       <c r="D71" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E71" s="9" t="inlineStr">
@@ -2413,28 +2409,28 @@
       </c>
       <c r="G71" s="10" t="inlineStr"/>
       <c r="H71" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="12" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B72" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C72" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E72" s="12" t="inlineStr">
@@ -2447,28 +2443,28 @@
       </c>
       <c r="G72" s="13" t="inlineStr"/>
       <c r="H72" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B73" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C73" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D73" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E73" s="9" t="inlineStr">
@@ -2481,28 +2477,28 @@
       </c>
       <c r="G73" s="10" t="inlineStr"/>
       <c r="H73" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="12" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B74" s="12" t="inlineStr">
         <is>
-          <t>GYA-HDIG</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C74" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D74" s="12" t="inlineStr">
         <is>
-          <t>GYA, Hand Dig or Additional Excavation</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E74" s="12" t="inlineStr">
@@ -2515,28 +2511,28 @@
       </c>
       <c r="G74" s="13" t="inlineStr"/>
       <c r="H74" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="9" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 32</t>
         </is>
       </c>
       <c r="B75" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C75" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D75" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E75" s="9" t="inlineStr">
@@ -2549,18 +2545,18 @@
       </c>
       <c r="G75" s="10" t="inlineStr"/>
       <c r="H75" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="12" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B76" s="12" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C76" s="12" t="inlineStr">
@@ -2570,7 +2566,7 @@
       </c>
       <c r="D76" s="12" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E76" s="12" t="inlineStr">
@@ -2583,18 +2579,18 @@
       </c>
       <c r="G76" s="13" t="inlineStr"/>
       <c r="H76" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="9" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B77" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C77" s="9" t="inlineStr">
@@ -2604,7 +2600,7 @@
       </c>
       <c r="D77" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E77" s="9" t="inlineStr">
@@ -2617,18 +2613,18 @@
       </c>
       <c r="G77" s="10" t="inlineStr"/>
       <c r="H77" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="12" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B78" s="12" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C78" s="12" t="inlineStr">
@@ -2638,7 +2634,7 @@
       </c>
       <c r="D78" s="12" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E78" s="12" t="inlineStr">
@@ -2647,32 +2643,32 @@
         </is>
       </c>
       <c r="F78" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78" s="13" t="inlineStr"/>
       <c r="H78" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="9" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 34</t>
         </is>
       </c>
       <c r="B79" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C79" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D79" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E79" s="9" t="inlineStr">
@@ -2685,28 +2681,28 @@
       </c>
       <c r="G79" s="10" t="inlineStr"/>
       <c r="H79" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="12" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 34</t>
         </is>
       </c>
       <c r="B80" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C80" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D80" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E80" s="12" t="inlineStr">
@@ -2719,28 +2715,28 @@
       </c>
       <c r="G80" s="13" t="inlineStr"/>
       <c r="H80" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="9" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 34</t>
         </is>
       </c>
       <c r="B81" s="9" t="inlineStr">
         <is>
-          <t>GYA-HDIG</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C81" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D81" s="9" t="inlineStr">
         <is>
-          <t>GYA, Hand Dig or Additional Excavation</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E81" s="9" t="inlineStr">
@@ -2753,18 +2749,18 @@
       </c>
       <c r="G81" s="10" t="inlineStr"/>
       <c r="H81" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="12" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B82" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>EQL-1-4-C-20-S-X-C</t>
         </is>
       </c>
       <c r="C82" s="12" t="inlineStr">
@@ -2774,7 +2770,7 @@
       </c>
       <c r="D82" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E82" s="12" t="inlineStr">
@@ -2787,18 +2783,18 @@
       </c>
       <c r="G82" s="13" t="inlineStr"/>
       <c r="H82" s="14" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B83" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C83" s="9" t="inlineStr">
@@ -2808,7 +2804,7 @@
       </c>
       <c r="D83" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E83" s="9" t="inlineStr">
@@ -2821,18 +2817,18 @@
       </c>
       <c r="G83" s="10" t="inlineStr"/>
       <c r="H83" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="12" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B84" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C84" s="12" t="inlineStr">
@@ -2842,7 +2838,7 @@
       </c>
       <c r="D84" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E84" s="12" t="inlineStr">
@@ -2855,28 +2851,28 @@
       </c>
       <c r="G84" s="13" t="inlineStr"/>
       <c r="H84" s="14" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="9" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B85" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C85" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D85" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E85" s="9" t="inlineStr">
@@ -2889,28 +2885,28 @@
       </c>
       <c r="G85" s="10" t="inlineStr"/>
       <c r="H85" s="11" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="12" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B86" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C86" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D86" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E86" s="12" t="inlineStr">
@@ -2923,28 +2919,28 @@
       </c>
       <c r="G86" s="13" t="inlineStr"/>
       <c r="H86" s="14" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="9" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B87" s="9" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C87" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D87" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E87" s="9" t="inlineStr">
@@ -2957,13 +2953,13 @@
       </c>
       <c r="G87" s="10" t="inlineStr"/>
       <c r="H87" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="12" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B88" s="12" t="inlineStr">
@@ -2973,7 +2969,7 @@
       </c>
       <c r="C88" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D88" s="12" t="inlineStr">
@@ -2991,28 +2987,28 @@
       </c>
       <c r="G88" s="13" t="inlineStr"/>
       <c r="H88" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="9" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B89" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVD-SG10</t>
         </is>
       </c>
       <c r="C89" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D89" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVD, Service Grip, 1/0</t>
         </is>
       </c>
       <c r="E89" s="9" t="inlineStr">
@@ -3025,18 +3021,18 @@
       </c>
       <c r="G89" s="10" t="inlineStr"/>
       <c r="H89" s="11" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="12" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B90" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>XFR-50-24-120-1B</t>
         </is>
       </c>
       <c r="C90" s="12" t="inlineStr">
@@ -3046,7 +3042,7 @@
       </c>
       <c r="D90" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>XFR,50KVA,4.16gndY/2.4kV,120/240,1BG</t>
         </is>
       </c>
       <c r="E90" s="12" t="inlineStr">
@@ -3059,28 +3055,28 @@
       </c>
       <c r="G90" s="13" t="inlineStr"/>
       <c r="H90" s="14" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="9" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B91" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C91" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D91" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E91" s="9" t="inlineStr">
@@ -3093,18 +3089,18 @@
       </c>
       <c r="G91" s="10" t="inlineStr"/>
       <c r="H91" s="11" t="n">
-        <v>0</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="12" t="inlineStr">
         <is>
-          <t>Point 34</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B92" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C92" s="12" t="inlineStr">
@@ -3114,7 +3110,7 @@
       </c>
       <c r="D92" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E92" s="12" t="inlineStr">
@@ -3127,18 +3123,18 @@
       </c>
       <c r="G92" s="13" t="inlineStr"/>
       <c r="H92" s="14" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="9" t="inlineStr">
         <is>
-          <t>Point 34</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B93" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C93" s="9" t="inlineStr">
@@ -3148,7 +3144,7 @@
       </c>
       <c r="D93" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E93" s="9" t="inlineStr">
@@ -3161,18 +3157,18 @@
       </c>
       <c r="G93" s="10" t="inlineStr"/>
       <c r="H93" s="11" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="12" t="inlineStr">
         <is>
-          <t>Point 34</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B94" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C94" s="12" t="inlineStr">
@@ -3182,7 +3178,7 @@
       </c>
       <c r="D94" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E94" s="12" t="inlineStr">
@@ -3195,28 +3191,28 @@
       </c>
       <c r="G94" s="13" t="inlineStr"/>
       <c r="H94" s="14" t="n">
-        <v>0</v>
+        <v>60.43</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B95" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-20-S-X-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C95" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D95" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E95" s="9" t="inlineStr">
@@ -3229,28 +3225,28 @@
       </c>
       <c r="G95" s="10" t="inlineStr"/>
       <c r="H95" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="12" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B96" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C96" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D96" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E96" s="12" t="inlineStr">
@@ -3263,28 +3259,28 @@
       </c>
       <c r="G96" s="13" t="inlineStr"/>
       <c r="H96" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B97" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C97" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D97" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E97" s="9" t="inlineStr">
@@ -3297,188 +3293,77 @@
       </c>
       <c r="G97" s="10" t="inlineStr"/>
       <c r="H97" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="12" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B98" s="12" t="inlineStr">
-        <is>
-          <t>CND-HLC2</t>
-        </is>
-      </c>
-      <c r="C98" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D98" s="12" t="inlineStr">
-        <is>
-          <t>CND,Hot Line clamp #6-#2</t>
-        </is>
-      </c>
-      <c r="E98" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F98" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G98" s="13" t="inlineStr"/>
-      <c r="H98" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="9" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B99" s="9" t="inlineStr">
-        <is>
-          <t>CND-S2</t>
-        </is>
-      </c>
-      <c r="C99" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D99" s="9" t="inlineStr">
-        <is>
-          <t>CND,Stirrup #2</t>
-        </is>
-      </c>
-      <c r="E99" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F99" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" s="10" t="inlineStr"/>
-      <c r="H99" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="12" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B100" s="12" t="inlineStr">
-        <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
-        </is>
-      </c>
-      <c r="C100" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D100" s="12" t="inlineStr">
-        <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
-        </is>
-      </c>
-      <c r="E100" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F100" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G100" s="13" t="inlineStr"/>
-      <c r="H100" s="14" t="n">
-        <v>0</v>
+      <c r="A98" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H98" s="16" t="n">
+        <v>8104.580000000004</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="9" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B101" s="9" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C101" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D101" s="9" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E101" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F101" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" s="10" t="inlineStr"/>
-      <c r="H101" s="11" t="n">
-        <v>0</v>
+      <c r="A101" s="7" t="inlineStr">
+        <is>
+          <t>Thursday (07/03/2025)</t>
+        </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="12" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B102" s="12" t="inlineStr">
-        <is>
-          <t>GND-MD</t>
-        </is>
-      </c>
-      <c r="C102" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D102" s="12" t="inlineStr">
-        <is>
-          <t>GND,Wire Mldg Only</t>
-        </is>
-      </c>
-      <c r="E102" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F102" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G102" s="13" t="inlineStr"/>
-      <c r="H102" s="14" t="n">
-        <v>0</v>
+      <c r="A102" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B102" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C102" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D102" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E102" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F102" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G102" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H102" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B103" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C103" s="9" t="inlineStr">
@@ -3488,7 +3373,7 @@
       </c>
       <c r="D103" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E103" s="9" t="inlineStr">
@@ -3501,7 +3386,7 @@
       </c>
       <c r="G103" s="10" t="inlineStr"/>
       <c r="H103" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="104">
@@ -3512,7 +3397,7 @@
       </c>
       <c r="B104" s="12" t="inlineStr">
         <is>
-          <t>SVC-VA</t>
+          <t>ANC-DHM-8-84-T1-C</t>
         </is>
       </c>
       <c r="C104" s="12" t="inlineStr">
@@ -3522,7 +3407,7 @@
       </c>
       <c r="D104" s="12" t="inlineStr">
         <is>
-          <t>SVC-Virtual Asset Capitalization</t>
+          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E104" s="12" t="inlineStr">
@@ -3535,7 +3420,7 @@
       </c>
       <c r="G104" s="13" t="inlineStr"/>
       <c r="H104" s="14" t="n">
-        <v>0</v>
+        <v>217.53</v>
       </c>
     </row>
     <row r="105">
@@ -3546,17 +3431,17 @@
       </c>
       <c r="B105" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG10</t>
+          <t>CND-S40795A</t>
         </is>
       </c>
       <c r="C105" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D105" s="9" t="inlineStr">
         <is>
-          <t>SVD, Service Grip, 1/0</t>
+          <t>CND,Stirrup 4/0-795 ACSR</t>
         </is>
       </c>
       <c r="E105" s="9" t="inlineStr">
@@ -3569,7 +3454,7 @@
       </c>
       <c r="G105" s="10" t="inlineStr"/>
       <c r="H105" s="11" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="106">
@@ -3580,7 +3465,7 @@
       </c>
       <c r="B106" s="12" t="inlineStr">
         <is>
-          <t>XFR-50-24-120-1B</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C106" s="12" t="inlineStr">
@@ -3590,7 +3475,7 @@
       </c>
       <c r="D106" s="12" t="inlineStr">
         <is>
-          <t>XFR,50KVA,4.16gndY/2.4kV,120/240,1BG</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E106" s="12" t="inlineStr">
@@ -3603,28 +3488,28 @@
       </c>
       <c r="G106" s="13" t="inlineStr"/>
       <c r="H106" s="14" t="n">
-        <v>0</v>
+        <v>79.34999999999999</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B107" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C107" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D107" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E107" s="9" t="inlineStr">
@@ -3637,28 +3522,28 @@
       </c>
       <c r="G107" s="10" t="inlineStr"/>
       <c r="H107" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B108" s="12" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>SVC-10-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C108" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D108" s="12" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>SVC,1/0,Trip,All Alum,Res</t>
         </is>
       </c>
       <c r="E108" s="12" t="inlineStr">
@@ -3671,28 +3556,28 @@
       </c>
       <c r="G108" s="13" t="inlineStr"/>
       <c r="H108" s="14" t="n">
-        <v>0</v>
+        <v>195.83</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B109" s="9" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C109" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D109" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E109" s="9" t="inlineStr">
@@ -3705,28 +3590,28 @@
       </c>
       <c r="G109" s="10" t="inlineStr"/>
       <c r="H109" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="12" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B110" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C110" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D110" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E110" s="12" t="inlineStr">
@@ -3739,28 +3624,28 @@
       </c>
       <c r="G110" s="13" t="inlineStr"/>
       <c r="H110" s="14" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B111" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C111" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D111" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E111" s="9" t="inlineStr">
@@ -3773,930 +3658,22 @@
       </c>
       <c r="G111" s="10" t="inlineStr"/>
       <c r="H111" s="11" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="12" t="inlineStr">
-        <is>
-          <t>Point 36</t>
-        </is>
-      </c>
-      <c r="B112" s="12" t="inlineStr">
-        <is>
-          <t>GND-MD</t>
-        </is>
-      </c>
-      <c r="C112" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D112" s="12" t="inlineStr">
-        <is>
-          <t>GND,Wire Mldg Only</t>
-        </is>
-      </c>
-      <c r="E112" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F112" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G112" s="13" t="inlineStr"/>
-      <c r="H112" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="9" t="inlineStr">
-        <is>
-          <t>Point 36</t>
-        </is>
-      </c>
-      <c r="B113" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C113" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D113" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E113" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F113" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G113" s="10" t="inlineStr"/>
-      <c r="H113" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="12" t="inlineStr">
-        <is>
-          <t>Point 36</t>
-        </is>
-      </c>
-      <c r="B114" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C114" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D114" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E114" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F114" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G114" s="13" t="inlineStr"/>
-      <c r="H114" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="9" t="inlineStr">
-        <is>
-          <t>Point 36</t>
-        </is>
-      </c>
-      <c r="B115" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-4</t>
-        </is>
-      </c>
-      <c r="C115" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D115" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 4</t>
-        </is>
-      </c>
-      <c r="E115" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F115" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G115" s="10" t="inlineStr"/>
-      <c r="H115" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="12" t="inlineStr">
-        <is>
-          <t>Point 36</t>
-        </is>
-      </c>
-      <c r="B116" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C116" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D116" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E116" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F116" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G116" s="13" t="inlineStr"/>
-      <c r="H116" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="15" t="inlineStr">
+      <c r="A112" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H117" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="7" t="inlineStr">
-        <is>
-          <t>Thursday (07/03/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B121" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C121" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D121" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E121" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F121" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G121" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H121" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B122" s="9" t="inlineStr">
-        <is>
-          <t>GYA-HDIG</t>
-        </is>
-      </c>
-      <c r="C122" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D122" s="9" t="inlineStr">
-        <is>
-          <t>GYA, Hand Dig or Additional Excavation</t>
-        </is>
-      </c>
-      <c r="E122" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F122" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G122" s="10" t="inlineStr"/>
-      <c r="H122" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="12" t="inlineStr">
-        <is>
-          <t>Point 04</t>
-        </is>
-      </c>
-      <c r="B123" s="12" t="inlineStr">
-        <is>
-          <t>CND-HLC2</t>
-        </is>
-      </c>
-      <c r="C123" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D123" s="12" t="inlineStr">
-        <is>
-          <t>CND,Hot Line clamp #6-#2</t>
-        </is>
-      </c>
-      <c r="E123" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F123" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G123" s="13" t="inlineStr"/>
-      <c r="H123" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B124" s="9" t="inlineStr">
-        <is>
-          <t>GYA-HDIG</t>
-        </is>
-      </c>
-      <c r="C124" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D124" s="9" t="inlineStr">
-        <is>
-          <t>GYA, Hand Dig or Additional Excavation</t>
-        </is>
-      </c>
-      <c r="E124" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F124" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G124" s="10" t="inlineStr"/>
-      <c r="H124" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="12" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B125" s="12" t="inlineStr">
-        <is>
-          <t>GYA-HDIG</t>
-        </is>
-      </c>
-      <c r="C125" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D125" s="12" t="inlineStr">
-        <is>
-          <t>GYA, Hand Dig or Additional Excavation</t>
-        </is>
-      </c>
-      <c r="E125" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F125" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G125" s="13" t="inlineStr"/>
-      <c r="H125" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="9" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B126" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C126" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D126" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E126" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F126" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G126" s="10" t="inlineStr"/>
-      <c r="H126" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="12" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B127" s="12" t="inlineStr">
-        <is>
-          <t>GYA-HDIG</t>
-        </is>
-      </c>
-      <c r="C127" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D127" s="12" t="inlineStr">
-        <is>
-          <t>GYA, Hand Dig or Additional Excavation</t>
-        </is>
-      </c>
-      <c r="E127" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F127" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G127" s="13" t="inlineStr"/>
-      <c r="H127" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="9" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B128" s="9" t="inlineStr">
-        <is>
-          <t>GYA-HDIG</t>
-        </is>
-      </c>
-      <c r="C128" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D128" s="9" t="inlineStr">
-        <is>
-          <t>GYA, Hand Dig or Additional Excavation</t>
-        </is>
-      </c>
-      <c r="E128" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F128" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G128" s="10" t="inlineStr"/>
-      <c r="H128" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="12" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B129" s="12" t="inlineStr">
-        <is>
-          <t>GYA-HDIG</t>
-        </is>
-      </c>
-      <c r="C129" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D129" s="12" t="inlineStr">
-        <is>
-          <t>GYA, Hand Dig or Additional Excavation</t>
-        </is>
-      </c>
-      <c r="E129" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F129" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G129" s="13" t="inlineStr"/>
-      <c r="H129" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="9" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B130" s="9" t="inlineStr">
-        <is>
-          <t>ANC-DHM-8-84-T1-C</t>
-        </is>
-      </c>
-      <c r="C130" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D130" s="9" t="inlineStr">
-        <is>
-          <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
-        </is>
-      </c>
-      <c r="E130" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F130" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G130" s="10" t="inlineStr"/>
-      <c r="H130" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="12" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B131" s="12" t="inlineStr">
-        <is>
-          <t>CND-HLC2</t>
-        </is>
-      </c>
-      <c r="C131" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D131" s="12" t="inlineStr">
-        <is>
-          <t>CND,Hot Line clamp #6-#2</t>
-        </is>
-      </c>
-      <c r="E131" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F131" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G131" s="13" t="inlineStr"/>
-      <c r="H131" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="9" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B132" s="9" t="inlineStr">
-        <is>
-          <t>CND-S40795A</t>
-        </is>
-      </c>
-      <c r="C132" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D132" s="9" t="inlineStr">
-        <is>
-          <t>CND,Stirrup 4/0-795 ACSR</t>
-        </is>
-      </c>
-      <c r="E132" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F132" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G132" s="10" t="inlineStr"/>
-      <c r="H132" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="12" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B133" s="12" t="inlineStr">
-        <is>
-          <t>GYD-MPY</t>
-        </is>
-      </c>
-      <c r="C133" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D133" s="12" t="inlineStr">
-        <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
-        </is>
-      </c>
-      <c r="E133" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F133" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G133" s="13" t="inlineStr"/>
-      <c r="H133" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="9" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B134" s="9" t="inlineStr">
-        <is>
-          <t>GYF-38-78W-I-C</t>
-        </is>
-      </c>
-      <c r="C134" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D134" s="9" t="inlineStr">
-        <is>
-          <t>GYF,3/8,78Wire mt,Insulator Adder,Corros</t>
-        </is>
-      </c>
-      <c r="E134" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F134" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G134" s="10" t="inlineStr"/>
-      <c r="H134" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="12" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B135" s="12" t="inlineStr">
-        <is>
-          <t>GYF-38-D-42P-EP-C</t>
-        </is>
-      </c>
-      <c r="C135" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D135" s="12" t="inlineStr">
-        <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
-        </is>
-      </c>
-      <c r="E135" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F135" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G135" s="13" t="inlineStr"/>
-      <c r="H135" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="9" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B136" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C136" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D136" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E136" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F136" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G136" s="10" t="inlineStr"/>
-      <c r="H136" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="12" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B137" s="12" t="inlineStr">
-        <is>
-          <t>SVC-10-TP-AAA-RS</t>
-        </is>
-      </c>
-      <c r="C137" s="12" t="inlineStr">
-        <is>
-          <t>Trans</t>
-        </is>
-      </c>
-      <c r="D137" s="12" t="inlineStr">
-        <is>
-          <t>SVC,1/0,Trip,All Alum,Res</t>
-        </is>
-      </c>
-      <c r="E137" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F137" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G137" s="13" t="inlineStr"/>
-      <c r="H137" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="9" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B138" s="9" t="inlineStr">
-        <is>
-          <t>SVD-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C138" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D138" s="9" t="inlineStr">
-        <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E138" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F138" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G138" s="10" t="inlineStr"/>
-      <c r="H138" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="12" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B139" s="12" t="inlineStr">
-        <is>
-          <t>SVD-SG2</t>
-        </is>
-      </c>
-      <c r="C139" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D139" s="12" t="inlineStr">
-        <is>
-          <t>SVD,Service Grip,#2</t>
-        </is>
-      </c>
-      <c r="E139" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F139" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G139" s="13" t="inlineStr"/>
-      <c r="H139" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="9" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B140" s="9" t="inlineStr">
-        <is>
-          <t>XCO-27-100-8-C</t>
-        </is>
-      </c>
-      <c r="C140" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D140" s="9" t="inlineStr">
-        <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
-        </is>
-      </c>
-      <c r="E140" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F140" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G140" s="10" t="inlineStr"/>
-      <c r="H140" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="12" t="inlineStr">
-        <is>
-          <t>Point 35</t>
-        </is>
-      </c>
-      <c r="B141" s="12" t="inlineStr">
-        <is>
-          <t>GYA-HDIG</t>
-        </is>
-      </c>
-      <c r="C141" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D141" s="12" t="inlineStr">
-        <is>
-          <t>GYA, Hand Dig or Additional Excavation</t>
-        </is>
-      </c>
-      <c r="E141" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F141" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G141" s="13" t="inlineStr"/>
-      <c r="H141" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H142" s="16" t="n">
-        <v>0</v>
+      <c r="H112" s="16" t="n">
+        <v>1881.26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A101:H101"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="A18:G18"/>
@@ -4704,16 +3681,15 @@
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A142:G142"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A112:G112"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A98:G98"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A120:H120"/>
-    <mergeCell ref="A117:G117"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
